--- a/! HTML/Resultados e Endereços_ analises amostras AMA_poçossaudavéis.xlsx
+++ b/! HTML/Resultados e Endereços_ analises amostras AMA_poçossaudavéis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academicoifrnedu-my.sharepoint.com/personal/guilherme_leal_academico_ifrn_edu_br/Documents/Projects/ama/! HTML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DC6CC51010FF224CACD04974C07138A143AF8EA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB0D63E6-9DAF-6640-9CC6-E6A11BEE1830}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_DC6CC51010FF224CACD04974C07138A143AF8EA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5622BEF7-2BCE-A94B-8DF7-73D7ECD77A03}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>Amostras</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>-5.115441963507032, -36.633372632872195</t>
+  </si>
+  <si>
+    <t>-5.111722776720985, -36.63164558465836</t>
   </si>
 </sst>
 </file>
@@ -169,6 +172,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,12 +180,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -455,7 +461,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -508,7 +514,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -516,6 +522,9 @@
       </c>
       <c r="D5" t="s">
         <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
